--- a/data/trans_dic/DC-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1916495700325971</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3792444226490067</v>
+        <v>0.3792444226490068</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1880472627198751</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1360797015317178</v>
+        <v>0.1331513685023274</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1009423730273634</v>
+        <v>0.1004034802887099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07501602801448752</v>
+        <v>0.07555749129676242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1891333138924818</v>
+        <v>0.188727140069256</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1870102027034809</v>
+        <v>0.1877519659944322</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2243361383725511</v>
+        <v>0.228172377923058</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1636509134919663</v>
+        <v>0.1607829791899807</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3519628924336225</v>
+        <v>0.3513106659783902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1671583958571735</v>
+        <v>0.16770803039059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1701477385883288</v>
+        <v>0.1713231462629871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1252211049305086</v>
+        <v>0.1267952314514897</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2795969785060333</v>
+        <v>0.2793796445183033</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1881228163700736</v>
+        <v>0.1899365187335844</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1489061777792613</v>
+        <v>0.1510617802459007</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1235912154170618</v>
+        <v>0.1245340688463575</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2481772244240715</v>
+        <v>0.2496199772265649</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2474933462061236</v>
+        <v>0.2471431145547452</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2966448181733835</v>
+        <v>0.293207889952791</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2220893012593554</v>
+        <v>0.2232322627525881</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4072517500178452</v>
+        <v>0.4075828396153364</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2098704220714492</v>
+        <v>0.2089282065142411</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2137586856235408</v>
+        <v>0.2133803455603366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1637588941297216</v>
+        <v>0.1646682520806384</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3218299464918243</v>
+        <v>0.3235333143312322</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1237504530905868</v>
+        <v>0.1257142182861089</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09618100002254977</v>
+        <v>0.09607918486669388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07231585550838607</v>
+        <v>0.07417899041487612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1664238967729353</v>
+        <v>0.1685316024113689</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2322668990702816</v>
+        <v>0.2324730260207098</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1966386014002089</v>
+        <v>0.1953732314642765</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1504487238894839</v>
+        <v>0.1498769937896621</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3619889214900412</v>
+        <v>0.3638202747694623</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1856005098330306</v>
+        <v>0.1856789239658251</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.153247893041872</v>
+        <v>0.1526083394465623</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1181594411851769</v>
+        <v>0.1165586803587775</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2733299390204941</v>
+        <v>0.2734619515970019</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1693109017969233</v>
+        <v>0.1711679487461305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.138467332686781</v>
+        <v>0.1372238354107734</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1100777154105671</v>
+        <v>0.110541708113996</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2171537340340279</v>
+        <v>0.2175396933842432</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2893016436510929</v>
+        <v>0.290147153579914</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.246933631542378</v>
+        <v>0.249311923647879</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1977531687751257</v>
+        <v>0.2001315198004079</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4171189637108408</v>
+        <v>0.4159207706721562</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2219109376369983</v>
+        <v>0.2234038862151056</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1851613706088298</v>
+        <v>0.1863585322185473</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1493351435493326</v>
+        <v>0.1481285866452582</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3107206008556091</v>
+        <v>0.310290079067609</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1449649414215623</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4153448300291598</v>
+        <v>0.4153448300291597</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2820248036068005</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1830070335193654</v>
+        <v>0.1793767423870542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0601138337224638</v>
+        <v>0.05981588781849251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06346338001750504</v>
+        <v>0.06342247076642425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1995500587028532</v>
+        <v>0.2008886752987246</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3130336927748535</v>
+        <v>0.3178915415291169</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2045865677975539</v>
+        <v>0.2057442184755028</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1223069490878931</v>
+        <v>0.1178923052933724</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3837738752255999</v>
+        <v>0.3838823847199931</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2575929112665273</v>
+        <v>0.257107118463427</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1391097264273826</v>
+        <v>0.1378897687208052</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09888775092559844</v>
+        <v>0.09935133472937292</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3009227086099454</v>
+        <v>0.2997745173734694</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2446067886992715</v>
+        <v>0.2445539709213684</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09865722777055372</v>
+        <v>0.1029591153316498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1060526288056537</v>
+        <v>0.1045862888899613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2684205835297065</v>
+        <v>0.264931697499397</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3875491254297685</v>
+        <v>0.384849844531511</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2700273290584659</v>
+        <v>0.2675759575364322</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.170961226604266</v>
+        <v>0.1694220325910844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4476137620258615</v>
+        <v>0.446612951263866</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3069869072311238</v>
+        <v>0.3046247956831878</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.178870787891305</v>
+        <v>0.1776620413179586</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.132772981929551</v>
+        <v>0.1328700840997432</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3497369096251193</v>
+        <v>0.34723349471544</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1071517528729911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2233195861299229</v>
+        <v>0.223319586129923</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2912201067090017</v>
@@ -1093,7 +1093,7 @@
         <v>0.2177631648095413</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3717921404845712</v>
+        <v>0.3717921404845711</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2422019848193951</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.165277462083208</v>
+        <v>0.1638162004500384</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07659011722513367</v>
+        <v>0.07908989533591294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08826960854881097</v>
+        <v>0.08615802151741575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.195391010638373</v>
+        <v>0.1954602022697508</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2631353523450621</v>
+        <v>0.2625601028798739</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2183670784934489</v>
+        <v>0.2217066198684447</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1900813301478215</v>
+        <v>0.1924401961744241</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3484311429058904</v>
+        <v>0.3479207958707573</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2240394374296471</v>
+        <v>0.2234970164917034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1564433721462121</v>
+        <v>0.1573150427845152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1490659122034919</v>
+        <v>0.1481970846853257</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2835235394261207</v>
+        <v>0.2827295922037572</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2134784420454501</v>
+        <v>0.2141588117562483</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1166379822679229</v>
+        <v>0.1166037051278275</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1281731112105979</v>
+        <v>0.1296958248236393</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2493727157024349</v>
+        <v>0.250702150293957</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3200905381706097</v>
+        <v>0.3194225986142518</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2719520007156885</v>
+        <v>0.2749333797817769</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2438995093964222</v>
+        <v>0.2467679907666343</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3978865379634751</v>
+        <v>0.3992986087677172</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2645983103812379</v>
+        <v>0.2614642831855399</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1910120305943155</v>
+        <v>0.1916006195997699</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1839495209218629</v>
+        <v>0.1822689783969589</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3210876401267068</v>
+        <v>0.321780059498911</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.1837136657317105</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3877129738681967</v>
+        <v>0.3877129738681966</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2276724961502341</v>
@@ -1241,7 +1241,7 @@
         <v>0.1402056702677319</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3034885700049371</v>
+        <v>0.303488570004937</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1618905206920286</v>
+        <v>0.1623923853002687</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09274593235727234</v>
+        <v>0.09318274472827312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08489511817318612</v>
+        <v>0.08459110705968514</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1996089109301466</v>
+        <v>0.2002346703699719</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2616413171511848</v>
+        <v>0.2639099896210026</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2252857143639886</v>
+        <v>0.2242438238234551</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1703530002200377</v>
+        <v>0.1709277758779724</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3732548666527935</v>
+        <v>0.3738224161211947</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2176820189290559</v>
+        <v>0.2171723100018029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1625804162837814</v>
+        <v>0.1626412722410276</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1313371026992236</v>
+        <v>0.1310625261834298</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2931016888335747</v>
+        <v>0.2923752607288115</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1892878605079261</v>
+        <v>0.1891724274415356</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1129752850268261</v>
+        <v>0.1151460369751412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1051954841745652</v>
+        <v>0.104915893938298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.229396527032091</v>
+        <v>0.2282088576421719</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2932478552859332</v>
+        <v>0.2941929418440574</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2526860647068042</v>
+        <v>0.2532573445066812</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1967936456061708</v>
+        <v>0.1983637503367362</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4009704350426853</v>
+        <v>0.4006428576963683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2389368517180863</v>
+        <v>0.2376845745391781</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1811797765770529</v>
+        <v>0.1810818175281363</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1486946617825156</v>
+        <v>0.1478971751330503</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3142656934689764</v>
+        <v>0.3122357271449897</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>94441</v>
+        <v>92409</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>71010</v>
+        <v>70631</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>50621</v>
+        <v>50986</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>130636</v>
+        <v>130356</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>128729</v>
+        <v>129239</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>156374</v>
+        <v>159048</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>110111</v>
+        <v>108181</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>258404</v>
+        <v>257925</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>231074</v>
+        <v>231833</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>238295</v>
+        <v>239941</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>168753</v>
+        <v>170874</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>398395</v>
+        <v>398085</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>130559</v>
+        <v>131818</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>104751</v>
+        <v>106267</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83399</v>
+        <v>84036</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>171418</v>
+        <v>172415</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>170362</v>
+        <v>170121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>206776</v>
+        <v>204381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>149430</v>
+        <v>150199</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>298996</v>
+        <v>299239</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>290117</v>
+        <v>288815</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>299373</v>
+        <v>298843</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>220688</v>
+        <v>221913</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>458572</v>
+        <v>460999</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>119023</v>
+        <v>120912</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>97907</v>
+        <v>97804</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>73938</v>
+        <v>75843</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>174565</v>
+        <v>176776</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>224926</v>
+        <v>225125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>202967</v>
+        <v>201661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>156905</v>
+        <v>156309</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>387862</v>
+        <v>389824</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>358245</v>
+        <v>358396</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>314178</v>
+        <v>312867</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>244040</v>
+        <v>240734</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>579566</v>
+        <v>579846</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>162843</v>
+        <v>164629</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>140952</v>
+        <v>139687</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>112547</v>
+        <v>113021</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>227776</v>
+        <v>228181</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>280158</v>
+        <v>280976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>254881</v>
+        <v>257336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>206239</v>
+        <v>208720</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>446932</v>
+        <v>445648</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>428331</v>
+        <v>431213</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>379605</v>
+        <v>382059</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>308428</v>
+        <v>305936</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>658849</v>
+        <v>657936</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>124172</v>
+        <v>121709</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45544</v>
+        <v>45318</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48204</v>
+        <v>48173</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>160253</v>
+        <v>161328</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>214065</v>
+        <v>217387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>158999</v>
+        <v>159899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>96012</v>
+        <v>92547</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>311724</v>
+        <v>311812</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>350932</v>
+        <v>350270</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>213505</v>
+        <v>211633</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>152738</v>
+        <v>153454</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>486090</v>
+        <v>484235</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>165968</v>
+        <v>165932</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74745</v>
+        <v>78004</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80552</v>
+        <v>79439</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>215561</v>
+        <v>212759</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>265022</v>
+        <v>263176</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>209858</v>
+        <v>207953</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>134206</v>
+        <v>132998</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>363578</v>
+        <v>362765</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>418224</v>
+        <v>415006</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>274530</v>
+        <v>272675</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>205076</v>
+        <v>205226</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>564941</v>
+        <v>560897</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>155728</v>
+        <v>154351</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>72587</v>
+        <v>74957</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>82759</v>
+        <v>80779</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>193449</v>
+        <v>193518</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>273296</v>
+        <v>272698</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>229701</v>
+        <v>233213</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>198403</v>
+        <v>200865</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>389909</v>
+        <v>389338</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>443785</v>
+        <v>442710</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>312830</v>
+        <v>314573</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>295351</v>
+        <v>293630</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>597981</v>
+        <v>596306</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>201144</v>
+        <v>201785</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>110542</v>
+        <v>110510</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>120171</v>
+        <v>121599</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>246894</v>
+        <v>248211</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>332450</v>
+        <v>331756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>286067</v>
+        <v>289203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>254577</v>
+        <v>257571</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>445251</v>
+        <v>446832</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>524125</v>
+        <v>517917</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>381955</v>
+        <v>383132</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>364468</v>
+        <v>361138</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>677207</v>
+        <v>678668</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>530441</v>
+        <v>532086</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>317820</v>
+        <v>319317</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>288164</v>
+        <v>287132</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>705171</v>
+        <v>707381</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>884138</v>
+        <v>891804</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>801636</v>
+        <v>797929</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>603823</v>
+        <v>605861</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1394836</v>
+        <v>1396957</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1448835</v>
+        <v>1445443</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1135639</v>
+        <v>1136064</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>911334</v>
+        <v>909429</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2130766</v>
+        <v>2125485</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>620210</v>
+        <v>619832</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>387141</v>
+        <v>394580</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>357070</v>
+        <v>356121</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>810403</v>
+        <v>806208</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>990942</v>
+        <v>994136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>899135</v>
+        <v>901168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>697543</v>
+        <v>703109</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1498408</v>
+        <v>1497184</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1590302</v>
+        <v>1581967</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1265557</v>
+        <v>1264872</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1031776</v>
+        <v>1026243</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2284622</v>
+        <v>2269865</v>
       </c>
     </row>
     <row r="24">
